--- a/reports/vivado/CodeHoistingSolution/power/CodeHoistingHierarchicalPowerReport.xlsx
+++ b/reports/vivado/CodeHoistingSolution/power/CodeHoistingHierarchicalPowerReport.xlsx
@@ -192,7 +192,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.011483412235975266</v>
+        <v>0.011036928743124008</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>10</v>
@@ -224,7 +224,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>0.006760106422007084</v>
+        <v>0.0063833920285105705</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>12</v>
@@ -256,7 +256,7 @@
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>0.004723305813968182</v>
+        <v>0.004653536714613438</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>13</v>
@@ -288,7 +288,7 @@
     </row>
     <row r="5" outlineLevel="2">
       <c r="A5" t="n" s="6">
-        <v>0.004723305813968182</v>
+        <v>0.004653536714613438</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>17</v>
